--- a/em_teams.xlsx
+++ b/em_teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra\Documents\GitHub\wer_omc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58759755-BE81-4E17-83FC-E23CE3129E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6995796-35B9-4BE7-A74E-99AD6339A9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18000" windowHeight="11170" xr2:uid="{FF0ED569-9C0F-4BAC-9790-59A86AD7D62E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{FF0ED569-9C0F-4BAC-9790-59A86AD7D62E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Albanien</t>
   </si>
   <si>
-    <t>Tschechien</t>
-  </si>
-  <si>
     <t>Belgien</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Polen</t>
   </si>
   <si>
-    <t>Östereich</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Österreich</t>
+  </si>
+  <si>
+    <t>Tschechische Republik</t>
   </si>
 </sst>
 </file>
@@ -506,22 +506,22 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -537,23 +537,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -577,7 +577,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -585,31 +585,31 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -617,15 +617,15 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -633,15 +633,15 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -649,39 +649,39 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -689,31 +689,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
